--- a/biology/Zoologie/Les_Joyeux_Farceurs/Les_Joyeux_Farceurs.xlsx
+++ b/biology/Zoologie/Les_Joyeux_Farceurs/Les_Joyeux_Farceurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Joyeux Farceurs est un tableau réalisé par le peintre français Henri Rousseau en 1906. Cette huile sur toile représente des singes et un oiseau dans une jungle. Elle est aujourd'hui conservée au Philadelphia Museum of Art, à Philadelphie.
 </t>
